--- a/va_facility_data_2025-02-20/Lee County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Lee%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Lee County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Lee%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R39079894c5844867a5bd0180ba8e4c30"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rff7f9a7d9e9b46efb8ca6bed3f6502ca"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R8a4af1f4f991487492267959a71703ce"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rc9bb8f58932445b390ba59b4ee00728a"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R42dcf892ad63457dbb085e3c570194b8"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Ra87cd3eece504452943dc8a92b042fac"/>
   </x:sheets>
 </x:workbook>
 </file>
